--- a/config_5.11/activity_xycj_config.xlsx
+++ b/config_5.11/activity_xycj_config.xlsx
@@ -202,7 +202,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +217,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
@@ -236,9 +229,65 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -249,7 +298,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,53 +321,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -324,29 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -355,24 +343,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +364,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -412,19 +405,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,19 +525,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,139 +573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +625,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -647,17 +655,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,8 +706,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,15 +722,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -737,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,137 +742,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -891,54 +884,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1266,7 +1259,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1854,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
@@ -1926,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>

--- a/config_5.11/activity_xycj_config.xlsx
+++ b/config_5.11/activity_xycj_config.xlsx
@@ -75,22 +75,22 @@
     <t>福利券x255</t>
   </si>
   <si>
+    <t>swjl_hwsj</t>
+  </si>
+  <si>
+    <t>华为mate40 RS</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+  </si>
+  <si>
+    <t>金币x1000万</t>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
     <t>福利券x4750</t>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-  </si>
-  <si>
-    <t>金币x1000万</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
-  </si>
-  <si>
-    <t>swjl_hwsj</t>
-  </si>
-  <si>
-    <t>华为mate40 RS</t>
   </si>
   <si>
     <t>ty_icon_jb_30y</t>
@@ -198,8 +198,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -229,9 +229,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,17 +282,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,21 +317,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,73 +364,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,187 +405,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +640,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -651,15 +660,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,17 +679,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,15 +699,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -722,6 +707,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -730,10 +730,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -742,137 +742,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -915,22 +915,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1259,7 +1259,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1600,7 +1600,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" ht="17.25" spans="1:9">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1611,22 +1611,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E12" s="15">
         <v>1</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>11</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H12" s="17"/>
       <c r="I12" s="17">
-        <v>4750</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1639,26 +1637,26 @@
       <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>20</v>
+      <c r="D13" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E13" s="15">
         <v>1</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>21</v>
+      <c r="F13" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="G13" s="17">
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" s="17">
         <v>10000000</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:16">
+    <row r="14" spans="1:16">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1669,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E14" s="15">
         <v>1</v>
@@ -1678,11 +1676,13 @@
         <v>24</v>
       </c>
       <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>11</v>
+      </c>
       <c r="I14" s="17">
-        <v>1</v>
+        <v>4750</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="6"/>
@@ -1702,20 +1702,20 @@
       <c r="C15" s="13">
         <v>2</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="15">
         <v>1</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="17">
         <v>0</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="17">
         <v>5000000</v>
@@ -1738,13 +1738,13 @@
       <c r="C16" s="13">
         <v>2</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="15">
         <v>1</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="19" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="17">
@@ -1774,20 +1774,20 @@
       <c r="C17" s="13">
         <v>2</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="19" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="17">
         <v>1</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="17">
         <v>100000000</v>
@@ -1810,13 +1810,13 @@
       <c r="C18" s="13">
         <v>2</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="15">
         <v>1</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="17">
@@ -1846,20 +1846,20 @@
       <c r="C19" s="13">
         <v>2</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="15">
         <v>1</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="17">
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" s="17">
         <v>5000000</v>
@@ -1882,13 +1882,13 @@
       <c r="C20" s="13">
         <v>2</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="15">
         <v>1</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="19" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="17">
@@ -1918,20 +1918,20 @@
       <c r="C21" s="13">
         <v>2</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>20</v>
+      <c r="D21" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="E21" s="15">
         <v>1</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>21</v>
+      <c r="F21" s="19" t="s">
+        <v>22</v>
       </c>
       <c r="G21" s="17">
         <v>0</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="17">
         <v>10000000</v>
@@ -1960,10 +1960,11 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" ht="17.25" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="F26" s="20"/>
+      <c r="D26" s="14"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4"/>
